--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CB SYSTEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CB SYSTEM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC59F13-0164-4154-B16F-4DC641361E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5750C182-97C3-4847-832C-E342A4929CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>序號</t>
   </si>
@@ -84,12 +84,6 @@
     <t>2025/5/19</t>
   </si>
   <si>
-    <t>6117</t>
-  </si>
-  <si>
-    <t>61172</t>
-  </si>
-  <si>
     <t>迎廣二</t>
   </si>
   <si>
@@ -105,12 +99,6 @@
     <t>2025/5/20</t>
   </si>
   <si>
-    <t>1472</t>
-  </si>
-  <si>
-    <t>14722</t>
-  </si>
-  <si>
     <t>三洋實業二</t>
   </si>
   <si>
@@ -123,24 +111,12 @@
     <t>2025/5/28</t>
   </si>
   <si>
-    <t>4555</t>
-  </si>
-  <si>
-    <t>45554</t>
-  </si>
-  <si>
     <t>氣立四</t>
   </si>
   <si>
     <t>2025/6/4</t>
   </si>
   <si>
-    <t>3653</t>
-  </si>
-  <si>
-    <t>36535</t>
-  </si>
-  <si>
     <t>健策五</t>
   </si>
   <si>
@@ -151,12 +127,6 @@
   </si>
   <si>
     <t>2025/6/5</t>
-  </si>
-  <si>
-    <t>3617</t>
-  </si>
-  <si>
-    <t>36173</t>
   </si>
   <si>
     <t>碩天三</t>
@@ -227,11 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -536,9 +507,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -597,26 +581,26 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>6117</v>
+      </c>
+      <c r="D2" s="2">
+        <v>61172</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
       <c r="F2">
         <v>9.19</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -645,28 +629,28 @@
         <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1472</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14722</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>5.25</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -695,28 +679,28 @@
         <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4555</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45554</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -745,28 +729,28 @@
         <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3653</v>
+      </c>
+      <c r="D5" s="2">
+        <v>36535</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>14.29</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -795,28 +779,28 @@
         <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3617</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36173</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>9.42</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>4</v>

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91596CF3-F8DE-4828-A221-8FAAAF419D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFBFD5-9BE6-4A4C-BE30-5B881CBC793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P296"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16309,7 +16309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE192E67-C791-4C55-B722-4876FC5F78CD}">
   <dimension ref="A1:V296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
